--- a/windows_control/码率表.xlsx
+++ b/windows_control/码率表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\pythonProject_seevision\windows_control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170ABCCA-3D01-4A0D-86C6-CCB64D2CE654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FFAF4-7B82-4856-AA4A-E7A0F8FE2675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6480" yWindow="1725" windowWidth="25635" windowHeight="11385" xr2:uid="{0921755C-F05F-4458-8B57-22D506F8D92E}"/>
   </bookViews>
@@ -592,15 +592,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -945,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0AADA2-FDF6-4207-BE05-A408FDEAA887}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,23 +954,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
@@ -982,463 +979,463 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>79</v>
       </c>
     </row>
